--- a/files_for_files/new_buildings.xlsx
+++ b/files_for_files/new_buildings.xlsx
@@ -1,134 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliaksandr.troshyn\PycharmProjects\realty_model_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21CE124-1FED-43A3-AB0E-992AD93A32C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12336" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>adm_area</t>
-  </si>
-  <si>
-    <t>mun_district</t>
-  </si>
-  <si>
-    <t>gkh_address</t>
-  </si>
-  <si>
-    <t>gkh_total_floors</t>
-  </si>
-  <si>
-    <t>is_total_floors_variable</t>
-  </si>
-  <si>
-    <t>geo_lat</t>
-  </si>
-  <si>
-    <t>geo_lon</t>
-  </si>
-  <si>
-    <t>overlap_material</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>wall_material</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>residents_qty</t>
-  </si>
-  <si>
-    <t>construction_year</t>
-  </si>
-  <si>
-    <t>ceiling_height</t>
-  </si>
-  <si>
-    <t>passenger_elevators_qty</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>gkh_metro_station</t>
-  </si>
-  <si>
-    <t>metro_km</t>
-  </si>
-  <si>
-    <t>metro_min</t>
-  </si>
-  <si>
-    <t>gkh_cadastr_num</t>
-  </si>
-  <si>
-    <t>code_KLADR</t>
-  </si>
-  <si>
-    <t>global_repair_date</t>
-  </si>
-  <si>
-    <t>is_renov</t>
-  </si>
-  <si>
-    <t>renov_period</t>
-  </si>
-  <si>
-    <t>building_page_url</t>
-  </si>
-  <si>
-    <t>addr_winner</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Roboto"/>
       <charset val="204"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Roboto"/>
       <charset val="204"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,30 +74,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,123 +446,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
-    <col min="24" max="24" width="22" customWidth="1"/>
-    <col min="25" max="25" width="25.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
+    <col width="15.44140625" customWidth="1" min="1" max="1"/>
+    <col width="14.5546875" customWidth="1" min="2" max="2"/>
+    <col width="41.44140625" customWidth="1" min="3" max="3"/>
+    <col width="19.5546875" customWidth="1" min="4" max="4"/>
+    <col width="26.88671875" customWidth="1" min="5" max="5"/>
+    <col width="13.33203125" customWidth="1" min="6" max="6"/>
+    <col width="14.5546875" customWidth="1" min="7" max="7"/>
+    <col width="18.33203125" customWidth="1" min="8" max="8"/>
+    <col width="14.44140625" customWidth="1" min="9" max="9"/>
+    <col width="16.6640625" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="18.109375" customWidth="1" min="12" max="12"/>
+    <col width="26.88671875" customWidth="1" min="13" max="13"/>
+    <col width="18.44140625" customWidth="1" min="14" max="14"/>
+    <col width="31.88671875" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="23.44140625" customWidth="1" min="20" max="20"/>
+    <col width="19.33203125" customWidth="1" min="21" max="21"/>
+    <col width="25.33203125" customWidth="1" min="22" max="22"/>
+    <col width="11.88671875" customWidth="1" min="23" max="23"/>
+    <col width="22" customWidth="1" min="24" max="24"/>
+    <col width="25.33203125" customWidth="1" min="25" max="25"/>
+    <col width="13.5546875" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
+    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="3">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>adm_area</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>mun_district</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>gkh_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gkh_total_floors</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>is_total_floors_variable</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>geo_lat</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>geo_lon</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>overlap_material</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>skeleton</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>wall_material</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>residents_qty</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>construction_year</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ceiling_height</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>passenger_elevators_qty</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>gkh_metro_station</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>metro_km</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metro_min</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>gkh_cadastr_num</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>code_KLADR</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>global_repair_date</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>is_renov</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>renov_period</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>building_page_url</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>addr_winner</t>
+        </is>
       </c>
     </row>
+    <row r="27" ht="19.8" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/files_for_files/new_buildings.xlsx
+++ b/files_for_files/new_buildings.xlsx
@@ -451,10 +451,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -619,7 +619,112 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="19.8" customHeight="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Южный</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Даниловский</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>г. москва, ул. татищева, д. 17</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v>55.71297</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37.61583</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>железобетонные</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Кирпичный</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Кирпичные</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>муниципальный</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>182</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="N2" t="n">
+        <v>248</v>
+      </c>
+      <c r="O2" t="n">
+        <v/>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Исправный</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Тульская</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>77:05:0001006:1060</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>77000000000287400</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v/>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v/>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>https://flatinfo.ru/h_info1.asp?hid=20813</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>татищева ул., 17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
